--- a/9/2/1/1/1/Variación anual 2016 a 2021 - Mensual.xlsx
+++ b/9/2/1/1/1/Variación anual 2016 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Serie</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,13 +1315,27 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="D55">
-        <v>6.3</v>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>6.5</v>
+      </c>
+      <c r="C56">
+        <v>1.9</v>
+      </c>
+      <c r="D56">
+        <v>6.6</v>
       </c>
     </row>
   </sheetData>

--- a/9/2/1/1/1/Variación anual 2016 a 2021 - Mensual.xlsx
+++ b/9/2/1/1/1/Variación anual 2016 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Serie</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1329,13 +1332,27 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C56">
         <v>1.9</v>
       </c>
       <c r="D56">
-        <v>6.6</v>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>6.4</v>
+      </c>
+      <c r="C57">
+        <v>1.6</v>
+      </c>
+      <c r="D57">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>

--- a/9/2/1/1/1/Variación anual 2016 a 2021 - Mensual.xlsx
+++ b/9/2/1/1/1/Variación anual 2016 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Serie</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1355,6 +1358,20 @@
         <v>6.7</v>
       </c>
     </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>5.7</v>
+      </c>
+      <c r="C58">
+        <v>0.4</v>
+      </c>
+      <c r="D58">
+        <v>6.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
